--- a/SCF/files/订单贷导入模板.xlsx
+++ b/SCF/files/订单贷导入模板.xlsx
@@ -2,26 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\SCF-test\SCF\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7128"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>说明：①带*号的字段为必填项，其他为选填项；②币别列为下拉选择；③企业名称务必填写全程，否则无法识别。</t>
   </si>
@@ -78,33 +76,75 @@
   </si>
   <si>
     <t>报关单号</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>电芯采购合同</t>
+  </si>
+  <si>
+    <t>欣旺达电子股份有限公司</t>
+  </si>
+  <si>
+    <t>电芯材料有限公司</t>
+  </si>
+  <si>
+    <t>电芯负极材料</t>
+  </si>
+  <si>
+    <t>GB913</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>GKJBRDA1234365</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -126,18 +166,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -158,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,12 +248,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -235,12 +283,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -410,135 +458,169 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="8" width="9.3984375" customWidth="1"/>
-    <col min="9" max="10" width="5.3984375" customWidth="1"/>
-    <col min="11" max="11" width="7.3984375" customWidth="1"/>
-    <col min="12" max="13" width="11.69921875" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" customWidth="1"/>
-    <col min="15" max="15" width="12.69921875" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" customWidth="1"/>
+    <col min="10" max="10" width="6.9140625" customWidth="1"/>
+    <col min="11" max="11" width="7.4140625" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>32456789654</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9928</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5">
+        <v>988.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>98850</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>44701</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>928495058</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K3:K65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 JG1 TC1 ACY1 AMU1 AWQ1 BGM1 BQI1 CAE1 CKA1 CTW1 DDS1 DNO1 DXK1 EHG1 ERC1 FAY1 FKU1 FUQ1 GEM1 GOI1 GYE1 HIA1 HRW1 IBS1 ILO1 IVK1 JFG1 JPC1 JYY1 KIU1 KSQ1 LCM1 LMI1 LWE1 MGA1 MPW1 MZS1 NJO1 NTK1 ODG1 ONC1 OWY1 PGU1 PQQ1 QAM1 QKI1 QUE1 REA1 RNW1 RXS1 SHO1 SRK1 TBG1 TLC1 TUY1 UEU1 UOQ1 UYM1 VII1 VSE1 WCA1 WLW1 WVS1 K3 JG3 TC3 ACY3 AMU3 AWQ3 BGM3 BQI3 CAE3 CKA3 CTW3 DDS3 DNO3 DXK3 EHG3 ERC3 FAY3 FKU3 FUQ3 GEM3 GOI3 GYE3 HIA3 HRW3 IBS3 ILO3 IVK3 JFG3 JPC3 JYY3 KIU3 KSQ3 LCM3 LMI3 LWE3 MGA3 MPW3 MZS3 NJO3 NTK3 ODG3 ONC3 OWY3 PGU3 PQQ3 QAM3 QKI3 QUE3 REA3 RNW3 RXS3 SHO3 SRK3 TBG3 TLC3 TUY3 UEU3 UOQ3 UYM3 VII3 VSE3 WCA3 WLW3 WVS3">
       <formula1>"人民币,美元"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>